--- a/DataProviderProject/src/main/java/utils/groups/testdata.xlsx
+++ b/DataProviderProject/src/main/java/utils/groups/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanu\eclipse-workspace\DataProviderProject\src\main\java\utils\groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanu\git\DataProviderProject_ven\DataProviderProject\src\main\java\utils\groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A26EFEA-4AF5-485A-ABDC-2FB3D56FCAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1EFDAF-47DF-4143-A583-2620502429C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Reg-U2</t>
   </si>
   <si>
-    <t>Sanity-U3</t>
-  </si>
-  <si>
     <t>Somke-U4</t>
   </si>
   <si>
@@ -67,16 +64,49 @@
     <t>Reg-P2</t>
   </si>
   <si>
-    <t>Sanity-P3</t>
-  </si>
-  <si>
     <t>Somke-P4</t>
   </si>
   <si>
-    <t>Reg-U5</t>
-  </si>
-  <si>
-    <t>Reg-P5</t>
+    <t>Reg-U1</t>
+  </si>
+  <si>
+    <t>Reg-P1</t>
+  </si>
+  <si>
+    <t>Sanity-U1</t>
+  </si>
+  <si>
+    <t>Sanity-P1</t>
+  </si>
+  <si>
+    <t>Somke-U2</t>
+  </si>
+  <si>
+    <t>Somke-P2</t>
+  </si>
+  <si>
+    <t>smoke-U3</t>
+  </si>
+  <si>
+    <t>Reg-U3</t>
+  </si>
+  <si>
+    <t>Reg-U4</t>
+  </si>
+  <si>
+    <t>Sanity-U2</t>
+  </si>
+  <si>
+    <t>smoke-P3</t>
+  </si>
+  <si>
+    <t>Reg-P3</t>
+  </si>
+  <si>
+    <t>Sanity-P2</t>
+  </si>
+  <si>
+    <t>Reg-P4</t>
   </si>
 </sst>
 </file>
@@ -416,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -460,10 +490,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -474,10 +504,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -488,10 +518,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -502,15 +532,85 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/DataProviderProject/src/main/java/utils/groups/testdata.xlsx
+++ b/DataProviderProject/src/main/java/utils/groups/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanu\git\DataProviderProject_ven\DataProviderProject\src\main\java\utils\groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1EFDAF-47DF-4143-A583-2620502429C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2FAB0A-1280-42D9-941E-EBB44ED66EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
